--- a/results/mp/deberta/corona/confidence/168/stop-words-desired-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/168/stop-words-desired-0.5/avg_0.004_scores.xlsx
@@ -103,15 +103,15 @@
     <t>good</t>
   </si>
   <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
     <t>fresh</t>
   </si>
   <si>
@@ -124,16 +124,16 @@
     <t>share</t>
   </si>
   <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>help</t>
   </si>
   <si>
     <t>care</t>
@@ -1247,13 +1247,13 @@
         <v>29</v>
       </c>
       <c r="K18">
-        <v>0.7543859649122807</v>
+        <v>0.7317073170731707</v>
       </c>
       <c r="L18">
-        <v>172</v>
+        <v>30</v>
       </c>
       <c r="M18">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="N18">
         <v>0.9399999999999999</v>
@@ -1265,7 +1265,7 @@
         <v>1</v>
       </c>
       <c r="Q18">
-        <v>56</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1273,25 +1273,25 @@
         <v>30</v>
       </c>
       <c r="K19">
-        <v>0.7317073170731707</v>
+        <v>0.73</v>
       </c>
       <c r="L19">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="M19">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="N19">
-        <v>0.9399999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="O19">
-        <v>0.06000000000000005</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P19" t="b">
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1299,25 +1299,25 @@
         <v>31</v>
       </c>
       <c r="K20">
-        <v>0.73</v>
+        <v>0.7196652719665272</v>
       </c>
       <c r="L20">
-        <v>73</v>
+        <v>172</v>
       </c>
       <c r="M20">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="N20">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O20">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>27</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1429,25 +1429,25 @@
         <v>36</v>
       </c>
       <c r="K25">
-        <v>0.647239263803681</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="L25">
-        <v>211</v>
+        <v>33</v>
       </c>
       <c r="M25">
-        <v>225</v>
+        <v>33</v>
       </c>
       <c r="N25">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>115</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1455,25 +1455,25 @@
         <v>37</v>
       </c>
       <c r="K26">
-        <v>0.6470588235294118</v>
+        <v>0.640625</v>
       </c>
       <c r="L26">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="M26">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="N26">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O26">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1481,25 +1481,25 @@
         <v>38</v>
       </c>
       <c r="K27">
-        <v>0.640625</v>
+        <v>0.6385964912280702</v>
       </c>
       <c r="L27">
-        <v>41</v>
+        <v>182</v>
       </c>
       <c r="M27">
-        <v>42</v>
+        <v>192</v>
       </c>
       <c r="N27">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="O27">
-        <v>0.02000000000000002</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P27" t="b">
         <v>1</v>
       </c>
       <c r="Q27">
-        <v>23</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1507,25 +1507,25 @@
         <v>39</v>
       </c>
       <c r="K28">
-        <v>0.6385964912280702</v>
+        <v>0.6205882352941177</v>
       </c>
       <c r="L28">
-        <v>182</v>
+        <v>211</v>
       </c>
       <c r="M28">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="N28">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O28">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>103</v>
+        <v>129</v>
       </c>
     </row>
     <row r="29" spans="10:17">
